--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1147605.757549373</v>
+        <v>1145348.73564029</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.58283624</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>327.7725728859739</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>291.6335787745114</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>156.1271626621473</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>31.51591178597092</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78.15291950170483</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>24.08852816170491</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>7.66511249829282</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>54.47555601903407</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>97.64711324991089</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>209.0940911210002</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>169.0167291702128</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>15.90252802695406</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>120.6353666620262</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>260.4132422210672</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>74.75769145492352</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>115.8549383633521</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,16 +2059,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>136.9453092564113</v>
+        <v>73.79299727940864</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>163.6898441249709</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>140.7058776187874</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>113.5103646250811</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>172.9374948395649</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634819</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734111903</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492372</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2767,16 +2767,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>140.1996960751718</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>74.75769145492418</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>40.79100033485466</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,16 +3193,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>137.8994480661947</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>126.0955237083908</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.775724893532</v>
+        <v>13.17495179891307</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102225</v>
+        <v>166.1905658102226</v>
       </c>
       <c r="D37" t="n">
-        <v>147.559217729807</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>145.3777073581639</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>144.3647927345259</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9695529706229</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>188.7127700430367</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>218.492693987764</v>
       </c>
       <c r="U37" t="n">
-        <v>175.5703910956929</v>
+        <v>285.1555829172077</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>251.0813880354228</v>
       </c>
       <c r="W37" t="n">
-        <v>285.4667430481857</v>
+        <v>285.4667430481858</v>
       </c>
       <c r="X37" t="n">
-        <v>224.6534001006318</v>
+        <v>224.6534001006319</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636895</v>
+        <v>217.5283980636896</v>
       </c>
     </row>
     <row r="38">
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3679,7 +3679,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3749,10 +3749,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633456</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
@@ -3916,7 +3916,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124571</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1394.624369323446</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="C2" t="n">
-        <v>1394.624369323446</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2171.363541363379</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2171.363541363379</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2171.363541363379</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1781.224209387568</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4422,10 +4422,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247.5125998356232</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="C4" t="n">
-        <v>247.5125998356232</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="D4" t="n">
-        <v>247.5125998356232</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>696.2947298771707</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V4" t="n">
-        <v>696.2947298771707</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W4" t="n">
-        <v>696.2947298771707</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="X4" t="n">
-        <v>468.3051789791533</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="Y4" t="n">
-        <v>247.5125998356232</v>
+        <v>211.6471865296041</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2090.781606227855</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C5" t="n">
-        <v>1721.819089287443</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4580,37 +4580,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2672.817244390239</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2496.639756704409</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2278.005089676471</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="V5" t="n">
-        <v>2169.72394915887</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="W5" t="n">
-        <v>2169.72394915887</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="X5" t="n">
-        <v>2169.72394915887</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="Y5" t="n">
-        <v>2169.72394915887</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="6">
@@ -4641,19 +4641,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C7" t="n">
-        <v>344.90437809669</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D7" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E7" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>336.2769833124032</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>108.9687959810049</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>108.9687959810049</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245969</v>
+        <v>108.9687959810049</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245969</v>
+        <v>108.9687959810049</v>
       </c>
       <c r="X7" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="Y7" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1626.94664591678</v>
+        <v>1040.216121848823</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>671.2536049084115</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>312.987906301661</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>312.987906301661</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>306.0424055524575</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2169.723949158871</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.752638628377</v>
+        <v>2169.723949158871</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.752638628377</v>
+        <v>1816.955293888757</v>
       </c>
       <c r="X8" t="n">
-        <v>2224.752638628377</v>
+        <v>1816.955293888757</v>
       </c>
       <c r="Y8" t="n">
-        <v>2013.546485980902</v>
+        <v>1426.815961912945</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245974</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245974</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791653</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791653</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694736</v>
+        <v>224.6669506791653</v>
       </c>
       <c r="X10" t="n">
-        <v>422.6486545462877</v>
+        <v>224.6669506791653</v>
       </c>
       <c r="Y10" t="n">
-        <v>201.8560754027576</v>
+        <v>224.6669506791653</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1070.832524924162</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1521.86673817257</v>
+        <v>1404.507041060941</v>
       </c>
       <c r="M11" t="n">
-        <v>2055.398642844495</v>
+        <v>2383.057343890769</v>
       </c>
       <c r="N11" t="n">
-        <v>2602.177459903277</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5069,22 +5069,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5094,13 +5094,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E12" t="n">
         <v>487.9678785494859</v>
@@ -5109,7 +5109,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>243.4741280307875</v>
+        <v>217.4149401676128</v>
       </c>
       <c r="C13" t="n">
-        <v>243.4741280307875</v>
+        <v>217.4149401676128</v>
       </c>
       <c r="D13" t="n">
-        <v>243.4741280307875</v>
+        <v>217.4149401676128</v>
       </c>
       <c r="E13" t="n">
         <v>95.56103444839442</v>
@@ -5197,13 +5197,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5215,34 +5215,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952191</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104706</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862234</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.82712468906</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258587</v>
       </c>
       <c r="U13" t="n">
-        <v>1190.016830247405</v>
+        <v>1163.95764238423</v>
       </c>
       <c r="V13" t="n">
-        <v>935.332342041518</v>
+        <v>909.2731541783432</v>
       </c>
       <c r="W13" t="n">
-        <v>645.9151720045573</v>
+        <v>619.8559841413826</v>
       </c>
       <c r="X13" t="n">
-        <v>645.9151720045573</v>
+        <v>619.8559841413826</v>
       </c>
       <c r="Y13" t="n">
-        <v>425.1225928610272</v>
+        <v>399.0634049978524</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5255,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5282,19 +5282,19 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>2979.169639353395</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
         <v>4653.975400188666</v>
@@ -5331,64 +5331,64 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>646.5509214492492</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>477.6147385213424</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
         <v>344.6708498442063</v>
@@ -5455,10 +5455,10 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
         <v>1674.827124689058</v>
@@ -5470,16 +5470,16 @@
         <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1163.957642384227</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W16" t="n">
-        <v>874.5404723472666</v>
+        <v>619.8559841413797</v>
       </c>
       <c r="X16" t="n">
-        <v>646.5509214492492</v>
+        <v>391.8664332433624</v>
       </c>
       <c r="Y16" t="n">
-        <v>646.5509214492492</v>
+        <v>171.0738540998323</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
@@ -5501,10 +5501,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5516,25 +5516,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1237.706702364128</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>2216.257005193957</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>3329.011433084685</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3831.983903964022</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4226.7582703212</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4685.236472830188</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5546,19 +5546,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
@@ -5592,10 +5592,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L18" t="n">
         <v>794.2006632320242</v>
@@ -5610,22 +5610,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>804.8364680322012</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="C19" t="n">
-        <v>804.8364680322012</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D19" t="n">
-        <v>654.7198286198654</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E19" t="n">
-        <v>506.8067350374723</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5692,10 +5692,10 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
         <v>1674.827124689058</v>
@@ -5707,16 +5707,16 @@
         <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1025.629047175731</v>
+        <v>1089.419261293916</v>
       </c>
       <c r="W19" t="n">
-        <v>1025.629047175731</v>
+        <v>800.0020912569551</v>
       </c>
       <c r="X19" t="n">
-        <v>1025.629047175731</v>
+        <v>572.0125403589376</v>
       </c>
       <c r="Y19" t="n">
-        <v>804.8364680322012</v>
+        <v>572.0125403589376</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5753,28 +5753,28 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L20" t="n">
-        <v>1237.706702364128</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193956</v>
+        <v>2368.748013620956</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420603</v>
+        <v>2915.526830679739</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
         <v>4667.761053946815</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5829,13 +5829,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5847,22 +5847,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>827.5554641779657</v>
+        <v>95.56103444839428</v>
       </c>
       <c r="C22" t="n">
-        <v>658.619281250059</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>508.5026418377232</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5911,10 +5911,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1734.57685067423</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1479.892362468343</v>
+        <v>999.1036114208124</v>
       </c>
       <c r="W22" t="n">
-        <v>1190.475192431382</v>
+        <v>709.6864413838517</v>
       </c>
       <c r="X22" t="n">
-        <v>1048.348043321496</v>
+        <v>481.6968904858344</v>
       </c>
       <c r="Y22" t="n">
-        <v>827.5554641779657</v>
+        <v>260.9043113423043</v>
       </c>
     </row>
     <row r="23">
@@ -5975,49 +5975,49 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J23" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3175.513123659585</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660292</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604875</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>264.4972173763014</v>
+        <v>210.2179684131228</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>210.2179684131228</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>210.2179684131228</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6151,7 +6151,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
         <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1500.142786467275</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1211.039919592919</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>956.3554313870318</v>
+        <v>909.2731541783406</v>
       </c>
       <c r="W25" t="n">
-        <v>666.9382613500712</v>
+        <v>619.8559841413801</v>
       </c>
       <c r="X25" t="n">
-        <v>666.9382613500712</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y25" t="n">
-        <v>446.1456822065411</v>
+        <v>391.8664332433625</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277731</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811482</v>
+        <v>1076.848340014667</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542189</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O26" t="n">
         <v>3482.142110232732</v>
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M27" t="n">
         <v>1241.476988454341</v>
@@ -6324,7 +6324,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549554</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6333,22 +6333,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>709.4168978689405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
         <v>95.56103444839442</v>
@@ -6385,16 +6385,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
         <v>1646.12566951853</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.657581931531</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.890966501056</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>1401.275111879671</v>
+        <v>909.2731541783406</v>
       </c>
       <c r="W28" t="n">
-        <v>1111.85794184271</v>
+        <v>619.85598414138</v>
       </c>
       <c r="X28" t="n">
-        <v>1111.85794184271</v>
+        <v>391.8664332433626</v>
       </c>
       <c r="Y28" t="n">
-        <v>891.0653626991802</v>
+        <v>171.0738540998325</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089262</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277731</v>
+        <v>357.0540087506643</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>690.8733824405108</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811482</v>
+        <v>1141.90759568892</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542189</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
@@ -6543,22 +6543,22 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
@@ -6573,7 +6573,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>411.3871648742116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
         <v>95.56103444839442</v>
@@ -6622,49 +6622,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892252</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
         <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.73316995219</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1915.140435463437</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1915.140435463437</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1693.373820032963</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1404.270953158607</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>1149.58646495272</v>
+        <v>909.273154178341</v>
       </c>
       <c r="W31" t="n">
-        <v>860.1692949157591</v>
+        <v>619.8559841413804</v>
       </c>
       <c r="X31" t="n">
-        <v>632.1797440177418</v>
+        <v>391.8664332433631</v>
       </c>
       <c r="Y31" t="n">
-        <v>411.3871648742116</v>
+        <v>171.073854099833</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001585</v>
@@ -6698,28 +6698,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L32" t="n">
-        <v>1803.682313196074</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M32" t="n">
-        <v>2337.214217867999</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N32" t="n">
-        <v>3316.966490094645</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6731,19 +6731,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6771,28 +6771,28 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
         <v>2436.460902902952</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>705.5174452387469</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C34" t="n">
-        <v>536.58126231084</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>536.58126231084</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>388.6681687284469</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>241.7782212305365</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>241.7782212305365</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839442</v>
@@ -6856,10 +6856,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6880,28 +6880,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1764.65758193153</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V34" t="n">
-        <v>1625.365210147495</v>
+        <v>909.2731541783407</v>
       </c>
       <c r="W34" t="n">
-        <v>1335.948040110534</v>
+        <v>619.8559841413801</v>
       </c>
       <c r="X34" t="n">
-        <v>1107.958489212517</v>
+        <v>391.8664332433627</v>
       </c>
       <c r="Y34" t="n">
-        <v>887.1659100689866</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="35">
@@ -6914,46 +6914,46 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483405</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542187</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3931.363334276589</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4326.137700633767</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188666</v>
@@ -7005,28 +7005,28 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089897</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468572</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>871.7851118255078</v>
+        <v>263.4302928425587</v>
       </c>
       <c r="C37" t="n">
-        <v>703.9158534313436</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>554.8661385527508</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>408.0199695041003</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>262.1969465399327</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
         <v>95.56103444839442</v>
@@ -7093,13 +7093,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308512</v>
+        <v>141.7293596308511</v>
       </c>
       <c r="K37" t="n">
-        <v>346.7622353152489</v>
+        <v>346.7622353152487</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992663</v>
+        <v>664.3677264992662</v>
       </c>
       <c r="M37" t="n">
         <v>1009.570464834336</v>
@@ -7111,7 +7111,7 @@
         <v>1652.399825931657</v>
       </c>
       <c r="P37" t="n">
-        <v>1886.053019100838</v>
+        <v>1886.053019100837</v>
       </c>
       <c r="Q37" t="n">
         <v>1964.709007988874</v>
@@ -7120,25 +7120,25 @@
         <v>1964.709007988874</v>
       </c>
       <c r="S37" t="n">
-        <v>1964.709007988874</v>
+        <v>1774.090048349442</v>
       </c>
       <c r="T37" t="n">
-        <v>1964.709007988874</v>
+        <v>1553.390357452711</v>
       </c>
       <c r="U37" t="n">
-        <v>1787.365178599285</v>
+        <v>1265.354415112097</v>
       </c>
       <c r="V37" t="n">
-        <v>1787.365178599285</v>
+        <v>1011.736851439953</v>
       </c>
       <c r="W37" t="n">
-        <v>1499.014933096067</v>
+        <v>723.3866059367351</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.092306731792</v>
+        <v>496.4639795724604</v>
       </c>
       <c r="Y37" t="n">
-        <v>1052.366652122005</v>
+        <v>276.7383249626729</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7178,22 +7178,22 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L38" t="n">
-        <v>1586.925993846824</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M38" t="n">
-        <v>2120.457898518748</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N38" t="n">
-        <v>2667.236715577531</v>
+        <v>3329.011433084685</v>
       </c>
       <c r="O38" t="n">
-        <v>3547.201365906985</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.556453353931</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089898</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468572</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
@@ -7254,16 +7254,16 @@
         <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7284,10 +7284,10 @@
         <v>2271.877220313404</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W39" t="n">
         <v>1554.419908487875</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215059</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416723</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774099</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430896</v>
+        <v>463.89815074309</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932529</v>
       </c>
       <c r="G40" t="n">
         <v>244.2046325160447</v>
@@ -7330,13 +7330,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477367</v>
       </c>
       <c r="K40" t="n">
         <v>437.6816203490197</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499227</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7351,13 +7351,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R40" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T40" t="n">
         <v>1967.452490122057</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036722</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001585</v>
@@ -7415,22 +7415,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1069.293752345675</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>1897.67628410419</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N41" t="n">
-        <v>2877.428556330836</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O41" t="n">
-        <v>3757.393206660291</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G43" t="n">
         <v>244.2046325160447</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819759</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7588,13 +7588,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R43" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
         <v>1967.452490122057</v>
@@ -7603,16 +7603,16 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V43" t="n">
-        <v>1518.564400937961</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849074</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036727</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="44">
@@ -7646,28 +7646,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>2903.481887689699</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7728,10 +7728,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7789,7 +7789,7 @@
         <v>564.3616113774093</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F46" t="n">
         <v>364.4578361932524</v>
@@ -7804,7 +7804,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477367</v>
       </c>
       <c r="K46" t="n">
         <v>437.6816203490197</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360584</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142009</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.269243651622</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>288.0478149561032</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>338.5992815305711</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8930,22 +8930,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>176.2173930448432</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9164,28 +9164,28 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>34.13957882093973</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>170.1140909277297</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>342.3170758598136</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9638,28 +9638,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476838</v>
+        <v>79.7046587084543</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,22 +9872,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>7.630896635344868</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476826</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>-1.426747608945789e-12</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,22 +10109,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>73.34731650832771</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476826</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>258.621178561693</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,13 +10598,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>80.35488666587528</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10826,25 +10826,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>198.7154374299952</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>180.7381496078621</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11063,13 +11063,13 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>297.8289162490807</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>251.7982062376315</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11306,10 +11306,10 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476838</v>
+        <v>142.1686942807567</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>25.79859598454301</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>25.79859598454573</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270138</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>32.76053465486022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>115.1923340674167</v>
+        <v>178.3446460444194</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696643</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>85.00377777024971</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>32.92359802148806</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>46.61145443660433</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24619,7 +24619,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,16 +24655,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>111.9379472486562</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270131</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,7 +24847,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24856,7 +24856,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>48.14115233519263</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,16 +25081,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25120,19 +25120,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>114.2381952576333</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>92.48912964370402</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>165.600773094619</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>147.5592177298071</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>145.3777073581639</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>144.364792734526</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.969552970623</v>
       </c>
       <c r="H37" t="n">
-        <v>143.6987596259155</v>
+        <v>143.6987596259156</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143279</v>
+        <v>95.29616512143286</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25357,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164203</v>
+        <v>87.8758973816421</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430366</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>218.4926939877639</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>109.5851918215147</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0813880354227</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>970351.8669182699</v>
+        <v>970351.8669182698</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>970351.8669182699</v>
+        <v>970351.8669182697</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>970351.86691827</v>
+        <v>970351.8669182698</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>970351.8669182697</v>
+        <v>970351.8669182698</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>970351.8669182699</v>
+        <v>970351.8669182698</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>970351.8669182697</v>
+        <v>970351.8669182698</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>971077.1076853684</v>
+        <v>971077.1076853686</v>
       </c>
     </row>
     <row r="14">
@@ -26323,19 +26323,19 @@
         <v>436789.9655756815</v>
       </c>
       <c r="F2" t="n">
-        <v>436789.9655756816</v>
+        <v>436789.9655756813</v>
       </c>
       <c r="G2" t="n">
-        <v>436789.9655756813</v>
+        <v>436789.9655756815</v>
       </c>
       <c r="H2" t="n">
-        <v>436789.9655756812</v>
+        <v>436789.9655756814</v>
       </c>
       <c r="I2" t="n">
         <v>436789.9655756814</v>
       </c>
       <c r="J2" t="n">
-        <v>436789.9655756813</v>
+        <v>436789.9655756815</v>
       </c>
       <c r="K2" t="n">
         <v>436789.9655756814</v>
@@ -26344,10 +26344,10 @@
         <v>436789.9655756814</v>
       </c>
       <c r="M2" t="n">
-        <v>437122.3675939351</v>
+        <v>437122.3675939346</v>
       </c>
       <c r="N2" t="n">
-        <v>451572.9734253561</v>
+        <v>451572.973425356</v>
       </c>
       <c r="O2" t="n">
         <v>451572.9734253561</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925933</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>130487.3190696689</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506414995</v>
+        <v>36735.10506414988</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,43 +26418,43 @@
         <v>183348.6868571279</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.4923191899</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="I4" t="n">
+        <v>18148.49231918995</v>
+      </c>
+      <c r="J4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="J4" t="n">
-        <v>18148.49231918986</v>
-      </c>
       <c r="K4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.05294811451</v>
+        <v>18496.05294811447</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740897</v>
       </c>
       <c r="P4" t="n">
         <v>33605.65329740899</v>
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26485,16 +26485,16 @@
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="I5" t="n">
+        <v>96383.51825371367</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96383.51825371367</v>
-      </c>
-      <c r="K5" t="n">
-        <v>96383.51825371367</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-404602.6707097258</v>
+        <v>-404602.6707097259</v>
       </c>
       <c r="C6" t="n">
-        <v>185365.2085048185</v>
+        <v>185365.2085048184</v>
       </c>
       <c r="D6" t="n">
-        <v>185365.2085048186</v>
+        <v>185365.2085048187</v>
       </c>
       <c r="E6" t="n">
-        <v>-405119.4589906288</v>
+        <v>-405186.6544808544</v>
       </c>
       <c r="F6" t="n">
-        <v>322257.955002778</v>
+        <v>322190.7595125519</v>
       </c>
       <c r="G6" t="n">
-        <v>322257.9550027777</v>
+        <v>322190.7595125521</v>
       </c>
       <c r="H6" t="n">
-        <v>322257.9550027776</v>
+        <v>322190.7595125522</v>
       </c>
       <c r="I6" t="n">
-        <v>322257.9550027778</v>
+        <v>322190.7595125518</v>
       </c>
       <c r="J6" t="n">
-        <v>145834.7358101845</v>
+        <v>145767.5403199593</v>
       </c>
       <c r="K6" t="n">
-        <v>322257.9550027778</v>
+        <v>322190.7595125519</v>
       </c>
       <c r="L6" t="n">
-        <v>322257.9550027782</v>
+        <v>322190.7595125519</v>
       </c>
       <c r="M6" t="n">
-        <v>191666.6789965971</v>
+        <v>191600.9944246357</v>
       </c>
       <c r="N6" t="n">
-        <v>280899.5440496951</v>
+        <v>280899.544049695</v>
       </c>
       <c r="O6" t="n">
-        <v>317634.649113845</v>
+        <v>317634.6491138451</v>
       </c>
       <c r="P6" t="n">
         <v>317634.649113845</v>
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405322</v>
+        <v>1.056255288405221</v>
       </c>
       <c r="N2" t="n">
         <v>46.97513661859256</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26759,10 +26759,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405322</v>
+        <v>1.056255288405221</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018724</v>
+        <v>45.91888133018735</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,10 +26978,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>54.96126877750669</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>36.11867969562354</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>11.18263959690364</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>254.7659624560068</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>304.5809221617757</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>30.38987441310676</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>140.9503605199195</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>171.2340993700031</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>316.1370567708841</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>177.1438475350534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>10.81525101172448</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>209.8071273620831</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-3.728828926787027e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28287,7 +28287,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.984279490192421e-12</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-8.230827700563021e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-4.091732653158394e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-4.050093593832571e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405322</v>
+        <v>1.056255288405221</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405322</v>
+        <v>1.056255288405221</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405322</v>
+        <v>1.056255288405221</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405322</v>
+        <v>1.056255288405221</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405322</v>
+        <v>1.056255288405221</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405322</v>
+        <v>1.056255288405221</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405322</v>
+        <v>1.056255288405221</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405322</v>
+        <v>1.056255288405221</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405322</v>
+        <v>1.056255288405221</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405322</v>
+        <v>1.056255288405221</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405322</v>
+        <v>1.056255288405221</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405322</v>
+        <v>1.056255288405221</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405322</v>
+        <v>1.056255288405221</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405322</v>
+        <v>1.056255288405221</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405322</v>
+        <v>1.056255288405221</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405322</v>
+        <v>1.056255288405221</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405322</v>
+        <v>1.056255288405221</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405322</v>
+        <v>1.056255288405221</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405322</v>
+        <v>1.056255288405221</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405322</v>
+        <v>1.056255288405221</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405322</v>
+        <v>1.056255288405221</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405322</v>
+        <v>1.056255288405221</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405322</v>
+        <v>1.056255288405221</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405322</v>
+        <v>1.056255288405221</v>
       </c>
     </row>
     <row r="38">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,43 +31282,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,46 +31516,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,43 +33096,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002915</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,43 +33333,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34457,7 +34457,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
         <v>557.708647897025</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839187</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>625.2391015115037</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>794.1893959229033</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35583,7 +35583,7 @@
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451134</v>
       </c>
       <c r="Q13" t="n">
         <v>78.39423853789366</v>
@@ -35650,22 +35650,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>728.5192284577547</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35884,28 +35884,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>93.75277736316451</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7042053200619</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>850.3700767480326</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359029</v>
+        <v>587.7576595966734</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
         <v>347.6333793934838</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407865</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265655</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923324</v>
+        <v>463.221011027677</v>
       </c>
       <c r="M26" t="n">
-        <v>538.921115830227</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636244</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701982</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407865</v>
+        <v>264.1343174770403</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265655</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.921115830227</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636244</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859612</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127273</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>766.6741794499121</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
         <v>206.0476595443196</v>
@@ -37306,25 +37306,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>331.1491914695948</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147152</v>
+        <v>46.63467190147145</v>
       </c>
       <c r="K37" t="n">
         <v>207.1039148327248</v>
@@ -37476,13 +37476,13 @@
         <v>345.9132014559453</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110451</v>
+        <v>303.409385511045</v>
       </c>
       <c r="P37" t="n">
         <v>236.0133264335157</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629895</v>
+        <v>79.45049382629888</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37546,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>654.3055518223274</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>688.7911504960812</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37704,13 +37704,13 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37783,13 +37783,13 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>836.7500320793075</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>804.1000416505429</v>
       </c>
       <c r="O41" t="n">
         <v>888.8531821509645</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>661.3366991265652</v>
@@ -38026,10 +38026,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359029</v>
+        <v>650.2216951689758</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
@@ -38038,7 +38038,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38105,7 +38105,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525806</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
